--- a/src/load/test/data/Topics.xlsx
+++ b/src/load/test/data/Topics.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="topics" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="topics.links" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="topics.list" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">topics!$A$1:$F$29</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'topics.links'!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t xml:space="preserve">topic</t>
   </si>
@@ -273,7 +274,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,6 +317,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -412,12 +417,12 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -964,4 +969,86 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>